--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Fzd3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Fzd3</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.027123</v>
+        <v>0.3532066666666667</v>
       </c>
       <c r="H2">
-        <v>0.08136900000000001</v>
+        <v>1.05962</v>
       </c>
       <c r="I2">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.129292</v>
+        <v>0.196431</v>
       </c>
       <c r="N2">
-        <v>0.387876</v>
+        <v>0.589293</v>
       </c>
       <c r="O2">
-        <v>0.06615700391713267</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="P2">
-        <v>0.06615700391713268</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="Q2">
-        <v>0.003506786916</v>
+        <v>0.06938073874</v>
       </c>
       <c r="R2">
-        <v>0.031561082244</v>
+        <v>0.62442664866</v>
       </c>
       <c r="S2">
-        <v>0.004717950174570631</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="T2">
-        <v>0.004717950174570632</v>
+        <v>0.09717285149889213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.027123</v>
+        <v>0.3532066666666667</v>
       </c>
       <c r="H3">
-        <v>0.08136900000000001</v>
+        <v>1.05962</v>
       </c>
       <c r="I3">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4307096666666666</v>
+        <v>0.4307096666666667</v>
       </c>
       <c r="N3">
         <v>1.292129</v>
       </c>
       <c r="O3">
-        <v>0.2203884316493949</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="P3">
-        <v>0.220388431649395</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="Q3">
-        <v>0.011682138289</v>
+        <v>0.1521295256644445</v>
       </c>
       <c r="R3">
-        <v>0.105139244601</v>
+        <v>1.36916573098</v>
       </c>
       <c r="S3">
-        <v>0.01571687921170109</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="T3">
-        <v>0.01571687921170109</v>
+        <v>0.2130686423127578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.027123</v>
+        <v>0.3532066666666667</v>
       </c>
       <c r="H4">
-        <v>0.08136900000000001</v>
+        <v>1.05962</v>
       </c>
       <c r="I4">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,208 +682,22 @@
         <v>4.182957</v>
       </c>
       <c r="O4">
-        <v>0.7134545644334723</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="P4">
-        <v>0.7134545644334724</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="Q4">
-        <v>0.03781811423700001</v>
+        <v>0.49248276626</v>
       </c>
       <c r="R4">
-        <v>0.3403630281330001</v>
+        <v>4.43234489634</v>
       </c>
       <c r="S4">
-        <v>0.05087961799227444</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="T4">
-        <v>0.05087961799227445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.3532066666666667</v>
-      </c>
-      <c r="H5">
-        <v>1.05962</v>
-      </c>
-      <c r="I5">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="J5">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.129292</v>
-      </c>
-      <c r="N5">
-        <v>0.387876</v>
-      </c>
-      <c r="O5">
-        <v>0.06615700391713267</v>
-      </c>
-      <c r="P5">
-        <v>0.06615700391713268</v>
-      </c>
-      <c r="Q5">
-        <v>0.04566679634666666</v>
-      </c>
-      <c r="R5">
-        <v>0.41100116712</v>
-      </c>
-      <c r="S5">
-        <v>0.06143905374256203</v>
-      </c>
-      <c r="T5">
-        <v>0.06143905374256205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.3532066666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.05962</v>
-      </c>
-      <c r="I6">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="J6">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.4307096666666666</v>
-      </c>
-      <c r="N6">
-        <v>1.292129</v>
-      </c>
-      <c r="O6">
-        <v>0.2203884316493949</v>
-      </c>
-      <c r="P6">
-        <v>0.220388431649395</v>
-      </c>
-      <c r="Q6">
-        <v>0.1521295256644444</v>
-      </c>
-      <c r="R6">
-        <v>1.36916573098</v>
-      </c>
-      <c r="S6">
-        <v>0.2046715524376938</v>
-      </c>
-      <c r="T6">
-        <v>0.2046715524376939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3532066666666667</v>
-      </c>
-      <c r="H7">
-        <v>1.05962</v>
-      </c>
-      <c r="I7">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="J7">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.394319</v>
-      </c>
-      <c r="N7">
-        <v>4.182957</v>
-      </c>
-      <c r="O7">
-        <v>0.7134545644334723</v>
-      </c>
-      <c r="P7">
-        <v>0.7134545644334724</v>
-      </c>
-      <c r="Q7">
-        <v>0.49248276626</v>
-      </c>
-      <c r="R7">
-        <v>4.43234489634</v>
-      </c>
-      <c r="S7">
-        <v>0.6625749464411979</v>
-      </c>
-      <c r="T7">
-        <v>0.662574946441198</v>
+        <v>0.68975850618835</v>
       </c>
     </row>
   </sheetData>
